--- a/Database/Excel/Product groups/Встраиваемая техника/Винные шкафы.xlsx
+++ b/Database/Excel/Product groups/Встраиваемая техника/Винные шкафы.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Винные шкафы ВСТР" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Винные шкафы ВСТР'!$B$1:$Y$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Винные шкафы ВСТР'!$B$1:$Y$27</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="136">
   <si>
     <t>Название</t>
   </si>
@@ -295,18 +295,6 @@
     <t>KWT6322UG</t>
   </si>
   <si>
-    <t>Винный шкаф Dunavox DX-180.450K</t>
-  </si>
-  <si>
-    <t>DX-180.450K</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
     <t>Винный шкаф Miele KWT6321UG</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
   </si>
   <si>
     <t>60 х 58 х 82</t>
-  </si>
-  <si>
-    <t>180 х 59.5 х 69</t>
   </si>
   <si>
     <t>Размер ниши для встраивания (см)</t>
@@ -1473,11 +1458,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1537,13 +1520,13 @@
         <v>9</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>6</v>
@@ -1552,19 +1535,19 @@
         <v>15</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>7</v>
@@ -1616,16 +1599,16 @@
         <v>22</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P2" s="6">
         <v>46</v>
@@ -1634,7 +1617,7 @@
         <v>39</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S2" s="6">
         <v>42</v>
@@ -1689,16 +1672,16 @@
         <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P3" s="2">
         <v>46</v>
@@ -1707,7 +1690,7 @@
         <v>39</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S3" s="2">
         <v>42</v>
@@ -1756,31 +1739,31 @@
         <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P4" s="2">
         <v>103</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S4" s="2">
         <v>43</v>
@@ -1829,31 +1812,31 @@
         <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P5" s="2">
         <v>103</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S5" s="2">
         <v>43</v>
@@ -1908,16 +1891,16 @@
         <v>22</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P6" s="2">
         <v>46</v>
@@ -1926,7 +1909,7 @@
         <v>39</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S6" s="2">
         <v>42</v>
@@ -1981,16 +1964,16 @@
         <v>22</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P7" s="2">
         <v>46</v>
@@ -1999,7 +1982,7 @@
         <v>39</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S7" s="2">
         <v>42</v>
@@ -2054,16 +2037,16 @@
         <v>22</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P8" s="2">
         <v>48</v>
@@ -2072,7 +2055,7 @@
         <v>39</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S8" s="2">
         <v>34</v>
@@ -2127,16 +2110,16 @@
         <v>36</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P9" s="2">
         <v>48</v>
@@ -2145,7 +2128,7 @@
         <v>39</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S9" s="2">
         <v>32</v>
@@ -2200,25 +2183,25 @@
         <v>36</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P10" s="2">
         <v>195</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S10" s="2">
         <v>39</v>
@@ -2267,22 +2250,22 @@
         <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P11" s="2">
         <v>110</v>
@@ -2291,7 +2274,7 @@
         <v>23</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S11" s="2">
         <v>38</v>
@@ -2340,22 +2323,22 @@
         <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P12" s="2">
         <v>94</v>
@@ -2364,7 +2347,7 @@
         <v>59</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S12" s="2">
         <v>36</v>
@@ -2413,22 +2396,22 @@
         <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P13" s="2">
         <v>94</v>
@@ -2437,7 +2420,7 @@
         <v>59</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S13" s="2">
         <v>38</v>
@@ -2474,43 +2457,43 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P14" s="2">
         <v>287</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S14" s="2">
         <v>41</v>
@@ -2565,16 +2548,16 @@
         <v>36</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P15" s="2">
         <v>48</v>
@@ -2583,7 +2566,7 @@
         <v>53</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S15" s="2">
         <v>41</v>
@@ -2632,31 +2615,31 @@
         <v>42</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P16" s="2">
         <v>94</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S16" s="2">
         <v>39</v>
@@ -2705,22 +2688,22 @@
         <v>42</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P17" s="2">
         <v>390</v>
@@ -2729,7 +2712,7 @@
         <v>73</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S17" s="2">
         <v>42</v>
@@ -2778,22 +2761,22 @@
         <v>42</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P18" s="2">
         <v>275</v>
@@ -2802,7 +2785,7 @@
         <v>76</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S18" s="2">
         <v>42</v>
@@ -2851,22 +2834,22 @@
         <v>42</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P19" s="2">
         <v>390</v>
@@ -2875,7 +2858,7 @@
         <v>73</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S19" s="2">
         <v>42</v>
@@ -2924,22 +2907,22 @@
         <v>42</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P20" s="2">
         <v>275</v>
@@ -2948,7 +2931,7 @@
         <v>76</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S20" s="2">
         <v>42</v>
@@ -3003,16 +2986,16 @@
         <v>36</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P21" s="2">
         <v>195</v>
@@ -3021,7 +3004,7 @@
         <v>53</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S21" s="2">
         <v>39</v>
@@ -3076,16 +3059,16 @@
         <v>85</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P22" s="2">
         <v>48</v>
@@ -3094,7 +3077,7 @@
         <v>39</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S22" s="2">
         <v>34</v>
@@ -3131,43 +3114,43 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="P23" s="2">
         <v>287</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S23" s="2">
         <v>41</v>
@@ -3216,31 +3199,31 @@
         <v>42</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P24" s="2">
         <v>110</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S24" s="2">
         <v>38</v>
@@ -3289,22 +3272,22 @@
         <v>42</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P25" s="2">
         <v>94</v>
@@ -3313,7 +3296,7 @@
         <v>59</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S25" s="2">
         <v>37</v>
@@ -3344,54 +3327,86 @@
       <c r="B26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="J26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="2">
         <v>94</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="Q26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S26" s="2">
+        <v>37</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="U26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="V26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>42</v>
@@ -3403,37 +3418,37 @@
         <v>42</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P27" s="2">
-        <v>94</v>
+        <v>364</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S27" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>24</v>
@@ -3448,79 +3463,6 @@
         <v>33</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
-      <c r="A28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P28" s="2">
-        <v>364</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S28" s="2">
-        <v>42</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
